--- a/01  輸出資料/Check_TTM_and_DataCount.xlsx
+++ b/01  輸出資料/Check_TTM_and_DataCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google\我的雲端硬碟\學術｜研究與論文\論文著作\CDI Method\Code\01  輸出資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095FDBFF-95FA-4352-B2F0-C84A94FC2035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939D7E68-34AA-41A1-AE0C-7BD9C7BFCC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{81E531AE-F1BB-4917-B34B-4A3CD7F9F72F}"/>
   </bookViews>
@@ -438,9 +438,7 @@
   <dimension ref="A1:O326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
